--- a/Data/SongStreamForecast.xlsx
+++ b/Data/SongStreamForecast.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HPi7\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HPi7\OneDrive\Documents\Data Science\Predictive Analytics\Final Project\Analyzing Spotify top 200 songs trend\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A615D32C-A73F-4C51-A264-2128B8DF7408}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF89EE0-51FF-4D69-8C3B-FF350E911CC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="322">
   <si>
     <t>Track Name</t>
   </si>
@@ -987,18 +987,6 @@
   </si>
   <si>
     <t>Will be in Top 200 list for 22-28Jan 2021? (YES/NO)</t>
-  </si>
-  <si>
-    <t>Taylan</t>
-  </si>
-  <si>
-    <t>Sevil</t>
-  </si>
-  <si>
-    <t>Efe</t>
-  </si>
-  <si>
-    <t>Goksen</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1328,30 +1316,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1513,21 +1477,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1883,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,458 +1871,454 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>322</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>323</v>
-      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="7"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="7"/>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="7"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -2370,9 +2327,7 @@
       <c r="B52" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>324</v>
-      </c>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -2381,7 +2336,7 @@
       <c r="B53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -2390,7 +2345,7 @@
       <c r="B54" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -2399,7 +2354,7 @@
       <c r="B55" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="7"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -2408,7 +2363,7 @@
       <c r="B56" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -2417,7 +2372,7 @@
       <c r="B57" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -2426,7 +2381,7 @@
       <c r="B58" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="7"/>
+      <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -2435,7 +2390,7 @@
       <c r="B59" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="7"/>
+      <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -2444,7 +2399,7 @@
       <c r="B60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -2453,7 +2408,7 @@
       <c r="B61" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D61" s="7"/>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -2462,7 +2417,7 @@
       <c r="B62" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="7"/>
+      <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -2471,7 +2426,7 @@
       <c r="B63" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -2480,7 +2435,7 @@
       <c r="B64" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D64" s="7"/>
+      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -2489,7 +2444,7 @@
       <c r="B65" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D65" s="7"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -2498,7 +2453,7 @@
       <c r="B66" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -2507,7 +2462,7 @@
       <c r="B67" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -2516,7 +2471,7 @@
       <c r="B68" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D68" s="7"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
@@ -2525,7 +2480,7 @@
       <c r="B69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="7"/>
+      <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
@@ -2534,7 +2489,7 @@
       <c r="B70" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="7"/>
+      <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -2543,7 +2498,7 @@
       <c r="B71" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
@@ -2552,7 +2507,7 @@
       <c r="B72" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -2561,7 +2516,7 @@
       <c r="B73" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D73" s="7"/>
+      <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
@@ -2570,7 +2525,7 @@
       <c r="B74" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D74" s="7"/>
+      <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -2579,7 +2534,7 @@
       <c r="B75" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D75" s="7"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
@@ -2588,234 +2543,236 @@
       <c r="B76" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D76" s="7"/>
+      <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>325</v>
-      </c>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D78" s="7"/>
+      <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D79" s="7"/>
+      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D80" s="7"/>
+      <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D81" s="7"/>
+      <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D82" s="7"/>
+      <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="7"/>
+      <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D84" s="7"/>
+      <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="7"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D86" s="7"/>
+      <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D87" s="7"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D89" s="7"/>
+      <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="7"/>
+      <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D91" s="7"/>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D92" s="7"/>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D93" s="7"/>
+      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D94" s="7"/>
+      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D96" s="7"/>
+      <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="7"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D98" s="7"/>
+      <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D99" s="7"/>
+      <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D100" s="7"/>
+      <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D101" s="7"/>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
